--- a/Stock/profitDetail/profitDetail.xlsx
+++ b/Stock/profitDetail/profitDetail.xlsx
@@ -35,12 +35,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -383,8 +383,8 @@
           <t>2611</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>210.6941</v>
+      <c r="B2" t="n">
+        <v>-4.447600000000006</v>
       </c>
     </row>
     <row r="3">
@@ -394,7 +394,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.561767399999968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2066291800000035</v>
+        <v>-7.475999999999986</v>
       </c>
     </row>
     <row r="5">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.749258600000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -434,7 +434,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.174348599999983</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0228317199999874</v>
+        <v>3.355</v>
       </c>
     </row>
     <row r="9">
@@ -453,8 +453,8 @@
           <t>2489</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>-25.70220259999999</v>
+      <c r="B9" s="1" t="n">
+        <v>-11.69800000000001</v>
       </c>
     </row>
     <row r="10">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.325141799999998</v>
+        <v>-6.165299999999989</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.970067500000034</v>
+        <v>-5.4905</v>
       </c>
     </row>
     <row r="12">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.192480499999976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.313967500000029</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="14">
@@ -503,8 +503,8 @@
           <t>8420</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-0.6994785999999876</v>
+      <c r="B14" s="1" t="n">
+        <v>-10.2715</v>
       </c>
     </row>
     <row r="15">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0004100000000180444</v>
+        <v>-0.2145500000000029</v>
       </c>
     </row>
     <row r="16">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.9032016000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1364732000000076</v>
+        <v>-0.1224404000000068</v>
       </c>
     </row>
     <row r="18">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03777492000001075</v>
+        <v>-3.875984000000011</v>
       </c>
     </row>
     <row r="19">
@@ -553,8 +553,8 @@
           <t>8183</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>18.61418110000002</v>
+      <c r="B19" t="n">
+        <v>-2.513600000000006</v>
       </c>
     </row>
     <row r="20">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3715921000000089</v>
+        <v>-5.012</v>
       </c>
     </row>
     <row r="21">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02255030000001716</v>
+        <v>-3.114000000000015</v>
       </c>
     </row>
     <row r="22">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.04373849999994855</v>
+        <v>0.6628999999999942</v>
       </c>
     </row>
     <row r="23">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.807080500000011</v>
+        <v>-0.6371999999999971</v>
       </c>
     </row>
     <row r="24">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3581991999999591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -613,8 +613,8 @@
           <t>5258</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.4204631000000081</v>
+      <c r="B25" s="2" t="n">
+        <v>17.6964</v>
       </c>
     </row>
     <row r="26">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.881068999999945</v>
+        <v>1.592600000000006</v>
       </c>
     </row>
     <row r="27">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01776149999999325</v>
+        <v>-2.5755</v>
       </c>
     </row>
     <row r="28">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.471379300000044</v>
+        <v>-6.112999999999971</v>
       </c>
     </row>
     <row r="29">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.760118400000007</v>
+        <v>9.470399999999994</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.3937509999999602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.008509100000053877</v>
+        <v>-4.076571999999971</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6295409999999975</v>
+        <v>-4.976</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.257856299999985</v>
+        <v>-0.6370999999999912</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.715981200000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.4950018400000263</v>
+        <v>4.851899999999994</v>
       </c>
     </row>
     <row r="37">
@@ -733,8 +733,8 @@
           <t>8033</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>-0.06536799999992945</v>
+      <c r="B37" s="1" t="n">
+        <v>-10.70820000000003</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.294360099999991</v>
+        <v>-0.4263999999999942</v>
       </c>
     </row>
     <row r="39">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01438500000000931</v>
+        <v>-0.208857600000003</v>
       </c>
     </row>
     <row r="40">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1857078000000038</v>
+        <v>-1.711631199999974</v>
       </c>
     </row>
     <row r="41">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.3269380999999703</v>
+        <v>-2.546175000000018</v>
       </c>
     </row>
     <row r="42">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.0007603000000235624</v>
+        <v>-0.2618000000000029</v>
       </c>
     </row>
     <row r="43">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>18.41351891999997</v>
+        <v>-10.24360000000001</v>
       </c>
     </row>
     <row r="44">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.07158450000001176</v>
+        <v>-0.07030000000000292</v>
       </c>
     </row>
     <row r="45">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5582745999999607</v>
+        <v>-0.6480500000000029</v>
       </c>
     </row>
     <row r="46">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1037150999999867</v>
+        <v>-4.748600000000006</v>
       </c>
     </row>
     <row r="47">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.134214399999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.09003639999996813</v>
+        <v>-1.066</v>
       </c>
     </row>
     <row r="49">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0628241000000271</v>
+        <v>-0.3139444999999978</v>
       </c>
     </row>
     <row r="50">
@@ -863,8 +863,8 @@
           <t>9945</t>
         </is>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>17.57633510000001</v>
+      <c r="B50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>12.22294519999999</v>
+        <v>-11.0774</v>
       </c>
     </row>
     <row r="52">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2139771999999648</v>
+        <v>1.573599999999991</v>
       </c>
     </row>
     <row r="53">
@@ -893,8 +893,8 @@
           <t>6015</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>10.67821525999998</v>
+      <c r="B53" t="n">
+        <v>-3.932800000000003</v>
       </c>
     </row>
     <row r="54">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.897894700000048</v>
+        <v>-6.182100000000005</v>
       </c>
     </row>
     <row r="55">
@@ -913,8 +913,8 @@
           <t>8924</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>15.09961440000001</v>
+      <c r="B55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1.302336500000005</v>
+        <v>2.0055</v>
       </c>
     </row>
     <row r="57">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.06664440000000468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.592093400000013</v>
+        <v>-0.9141000000000058</v>
       </c>
     </row>
     <row r="59">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.1998458000000101</v>
+        <v>-0.3824759999999951</v>
       </c>
     </row>
     <row r="60">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.05030339999998978</v>
+        <v>6.181719000000012</v>
       </c>
     </row>
     <row r="61">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.688907600000035</v>
+        <v>-0.7135999999999767</v>
       </c>
     </row>
     <row r="62">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-2.224947500000024</v>
+        <v>-5.261100000000006</v>
       </c>
     </row>
     <row r="63">
@@ -993,8 +993,8 @@
           <t>3169</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>29.19975240000001</v>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1003,8 +1003,8 @@
           <t>6237</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>12.63470689999999</v>
+      <c r="B64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1013,8 +1013,8 @@
           <t>5351</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>32.77997760000004</v>
+      <c r="B65" t="n">
+        <v>-3.448399999999994</v>
       </c>
     </row>
     <row r="66">
@@ -1023,8 +1023,8 @@
           <t>6259</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>0.003830800000039744</v>
+      <c r="B66" s="2" t="n">
+        <v>12.50809199999999</v>
       </c>
     </row>
     <row r="67">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.04091383999995014</v>
+        <v>0.02914040000001842</v>
       </c>
     </row>
     <row r="68">
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.01077750000002561</v>
+        <v>1.262800000000017</v>
       </c>
     </row>
     <row r="69">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.3832853799999866</v>
+        <v>-5.006399999999994</v>
       </c>
     </row>
     <row r="70">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.04964770000000135</v>
+        <v>-0.03109919999999693</v>
       </c>
     </row>
     <row r="71">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.006787799999976414</v>
+        <v>-1.042199999999997</v>
       </c>
     </row>
     <row r="72">
@@ -1083,8 +1083,8 @@
           <t>2609</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>62.57432279999999</v>
+      <c r="B72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.4651214000000182</v>
+        <v>-2.1985</v>
       </c>
     </row>
     <row r="74">
@@ -1123,8 +1123,8 @@
           <t>5475</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>-1.973260020000001</v>
+      <c r="B76" s="1" t="n">
+        <v>-10.92229999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.2211240000000398</v>
+        <v>-0.8757999999999884</v>
       </c>
     </row>
     <row r="78">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.0101419000000169</v>
+        <v>2.363739999999991</v>
       </c>
     </row>
     <row r="79">
@@ -1153,8 +1153,8 @@
           <t>2615</t>
         </is>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>110.577164</v>
+      <c r="B79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.1086377999999822</v>
+        <v>-7.230100000000006</v>
       </c>
     </row>
     <row r="81">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.2051130000000267</v>
+        <v>-2.010599999999991</v>
       </c>
     </row>
     <row r="82">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.0362051999999967</v>
+        <v>-0.4697103999999818</v>
       </c>
     </row>
     <row r="83">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1.466959199999983</v>
+        <v>2.765200000000012</v>
       </c>
     </row>
     <row r="84">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3.77685334000003</v>
+        <v>-6.9265</v>
       </c>
     </row>
     <row r="85">
@@ -1213,8 +1213,8 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>0.2957740799999737</v>
+      <c r="B85" s="1" t="n">
+        <v>-18.53495999999999</v>
       </c>
     </row>
     <row r="86">
@@ -1233,8 +1233,8 @@
           <t>4950</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>-0.3722202999999863</v>
+      <c r="B87" s="1" t="n">
+        <v>-11.33699000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1243,8 +1243,8 @@
           <t>5210</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>0.5089234000000142</v>
+      <c r="B88" s="2" t="n">
+        <v>72.79579999999999</v>
       </c>
     </row>
     <row r="89">
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0556181999999535</v>
+        <v>6.037800000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.2952807999999932</v>
+        <v>-1.411400000000009</v>
       </c>
     </row>
     <row r="91">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.4845426000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.06992529999995895</v>
+        <v>-2.435600000000006</v>
       </c>
     </row>
     <row r="93">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.03269040000002132</v>
+        <v>1.648</v>
       </c>
     </row>
     <row r="94">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-6.129505000000063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.209081340000048</v>
+        <v>-9.40059999999999</v>
       </c>
     </row>
     <row r="96">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.2656434000000009</v>
+        <v>-1.474930800000002</v>
       </c>
     </row>
     <row r="97">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.003192300000009709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1343,8 +1343,8 @@
           <t>6547</t>
         </is>
       </c>
-      <c r="B98" s="1" t="n">
-        <v>79.93210200000001</v>
+      <c r="B98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.5452747999999555</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
